--- a/optimizeScript/PDB_seqs_1031.xlsx
+++ b/optimizeScript/PDB_seqs_1031.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yscao/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61414CE5-D4F1-754F-892D-4537116B1E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6280279-F582-4D41-B450-4910E3AF03DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35340" yWindow="10800" windowWidth="34200" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="745">
   <si>
     <t>ID</t>
   </si>
@@ -2102,13 +2102,376 @@
   </si>
   <si>
     <t>EVQLLESGGDLVQPGGSLRLSCAASGFTFSSYVMSWVRQAPGKGLEWVSVIYRGGSTKYADSVKGRFTISRDDSKNTLYLQMNSLRVEDTAVYYCVKDPKAWLEPEWWGQGTLVTVSSASTKGPSVFPLAPSSKSTSGGTAALGCLVKDYFPEPVTVSWNSGALTSGVHTFPAVLQSSGLYSLSSVVTVPSSSLGTQTYICNVNHKPSNTKVDKKVEPKSCDKGLEVLFQ</t>
+  </si>
+  <si>
+    <t>PDB ID</t>
+  </si>
+  <si>
+    <t>ID123</t>
+  </si>
+  <si>
+    <t>ID132</t>
+  </si>
+  <si>
+    <t>ID134</t>
+  </si>
+  <si>
+    <t>ID145</t>
+  </si>
+  <si>
+    <t>ID148</t>
+  </si>
+  <si>
+    <t>ID150</t>
+  </si>
+  <si>
+    <t>ID154</t>
+  </si>
+  <si>
+    <t>ID157</t>
+  </si>
+  <si>
+    <t>ID163</t>
+  </si>
+  <si>
+    <t>ID173</t>
+  </si>
+  <si>
+    <t>ID175</t>
+  </si>
+  <si>
+    <t>ID177</t>
+  </si>
+  <si>
+    <t>ID183</t>
+  </si>
+  <si>
+    <t>ID190</t>
+  </si>
+  <si>
+    <t>ID191</t>
+  </si>
+  <si>
+    <t>ID195</t>
+  </si>
+  <si>
+    <t>ID197</t>
+  </si>
+  <si>
+    <t>ID203</t>
+  </si>
+  <si>
+    <t>ID204</t>
+  </si>
+  <si>
+    <t>ID220</t>
+  </si>
+  <si>
+    <t>ID221</t>
+  </si>
+  <si>
+    <t>ID222</t>
+  </si>
+  <si>
+    <t>ID225</t>
+  </si>
+  <si>
+    <t>ID226</t>
+  </si>
+  <si>
+    <t>ID239</t>
+  </si>
+  <si>
+    <t>ID243</t>
+  </si>
+  <si>
+    <t>ID246</t>
+  </si>
+  <si>
+    <t>ID248</t>
+  </si>
+  <si>
+    <t>ID251</t>
+  </si>
+  <si>
+    <t>ID257</t>
+  </si>
+  <si>
+    <t>ID269</t>
+  </si>
+  <si>
+    <t>ID270</t>
+  </si>
+  <si>
+    <t>ID280</t>
+  </si>
+  <si>
+    <t>ID284</t>
+  </si>
+  <si>
+    <t>ID291</t>
+  </si>
+  <si>
+    <t>ID292</t>
+  </si>
+  <si>
+    <t>ID293</t>
+  </si>
+  <si>
+    <t>ID295</t>
+  </si>
+  <si>
+    <t>ID297</t>
+  </si>
+  <si>
+    <t>ID298</t>
+  </si>
+  <si>
+    <t>ID299</t>
+  </si>
+  <si>
+    <t>ID308</t>
+  </si>
+  <si>
+    <t>ID309</t>
+  </si>
+  <si>
+    <t>ID314</t>
+  </si>
+  <si>
+    <t>ID330</t>
+  </si>
+  <si>
+    <t>ID335</t>
+  </si>
+  <si>
+    <t>ID341</t>
+  </si>
+  <si>
+    <t>ID344</t>
+  </si>
+  <si>
+    <t>ID357</t>
+  </si>
+  <si>
+    <t>ID359</t>
+  </si>
+  <si>
+    <t>ID367</t>
+  </si>
+  <si>
+    <t>ID418</t>
+  </si>
+  <si>
+    <t>ID422</t>
+  </si>
+  <si>
+    <t>ID428</t>
+  </si>
+  <si>
+    <t>ID436</t>
+  </si>
+  <si>
+    <t>ID439</t>
+  </si>
+  <si>
+    <t>ID447</t>
+  </si>
+  <si>
+    <t>ID452</t>
+  </si>
+  <si>
+    <t>ID454</t>
+  </si>
+  <si>
+    <t>ID459</t>
+  </si>
+  <si>
+    <t>ID465</t>
+  </si>
+  <si>
+    <t>ID484</t>
+  </si>
+  <si>
+    <t>ID491</t>
+  </si>
+  <si>
+    <t>ID497</t>
+  </si>
+  <si>
+    <t>ID498</t>
+  </si>
+  <si>
+    <t>ID500</t>
+  </si>
+  <si>
+    <t>ID502</t>
+  </si>
+  <si>
+    <t>ID526</t>
+  </si>
+  <si>
+    <t>ID527</t>
+  </si>
+  <si>
+    <t>ID546</t>
+  </si>
+  <si>
+    <t>ID550</t>
+  </si>
+  <si>
+    <t>ID553</t>
+  </si>
+  <si>
+    <t>ID559</t>
+  </si>
+  <si>
+    <t>ID563</t>
+  </si>
+  <si>
+    <t>ID569</t>
+  </si>
+  <si>
+    <t>ID589</t>
+  </si>
+  <si>
+    <t>ID602</t>
+  </si>
+  <si>
+    <t>ID607</t>
+  </si>
+  <si>
+    <t>ID611</t>
+  </si>
+  <si>
+    <t>ID618</t>
+  </si>
+  <si>
+    <t>ID635</t>
+  </si>
+  <si>
+    <t>ID637</t>
+  </si>
+  <si>
+    <t>ID640</t>
+  </si>
+  <si>
+    <t>ID648</t>
+  </si>
+  <si>
+    <t>ID650</t>
+  </si>
+  <si>
+    <t>ID651</t>
+  </si>
+  <si>
+    <t>ID672</t>
+  </si>
+  <si>
+    <t>ID673</t>
+  </si>
+  <si>
+    <t>ID681</t>
+  </si>
+  <si>
+    <t>ID682</t>
+  </si>
+  <si>
+    <t>ID684</t>
+  </si>
+  <si>
+    <t>ID686</t>
+  </si>
+  <si>
+    <t>ID696</t>
+  </si>
+  <si>
+    <t>ID705</t>
+  </si>
+  <si>
+    <t>ID723</t>
+  </si>
+  <si>
+    <t>ID734</t>
+  </si>
+  <si>
+    <t>ID768</t>
+  </si>
+  <si>
+    <t>ID771</t>
+  </si>
+  <si>
+    <t>ID773</t>
+  </si>
+  <si>
+    <t>ID775</t>
+  </si>
+  <si>
+    <t>ID777</t>
+  </si>
+  <si>
+    <t>ID780</t>
+  </si>
+  <si>
+    <t>ID792</t>
+  </si>
+  <si>
+    <t>ID795</t>
+  </si>
+  <si>
+    <t>ID797</t>
+  </si>
+  <si>
+    <t>ID805</t>
+  </si>
+  <si>
+    <t>ID807</t>
+  </si>
+  <si>
+    <t>ID827</t>
+  </si>
+  <si>
+    <t>ID852</t>
+  </si>
+  <si>
+    <t>ID853</t>
+  </si>
+  <si>
+    <t>ID859</t>
+  </si>
+  <si>
+    <t>ID864</t>
+  </si>
+  <si>
+    <t>ID874</t>
+  </si>
+  <si>
+    <t>ID884</t>
+  </si>
+  <si>
+    <t>ID889</t>
+  </si>
+  <si>
+    <t>ID898</t>
+  </si>
+  <si>
+    <t>ID928</t>
+  </si>
+  <si>
+    <t>ID930</t>
+  </si>
+  <si>
+    <t>ID932</t>
+  </si>
+  <si>
+    <t>ID945</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2124,6 +2487,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2173,20 +2552,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2219,194 +2586,34 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+  <dxfs count="0"/>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="PivotTable Style 1" table="0" count="0" xr9:uid="{C32FB308-939A-674A-9545-050C121415E7}"/>
+    <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{27CF1C62-60D4-FE49-A9CA-7DD8642B62D6}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2417,27 +2624,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J121" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J121" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" totalsRowLabel="Total" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Count" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Light_Header" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Heavy_Header" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Light_Chain" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heavy_Chain" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Light_Header_2" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Heavy_Header_2" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Light_Chain_2" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Heavy_Chain_2" totalsRowFunction="custom" dataDxfId="0">
-      <totalsRowFormula>Sum</totalsRowFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2728,2854 +2914,4202 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="95.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="82.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="103" style="2" customWidth="1"/>
+    <col min="5" max="5" width="104.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="96.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="98" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" style="2"/>
+    <col min="13" max="13" width="20.83203125" style="7"/>
+    <col min="14" max="16" width="20.83203125" style="2"/>
+    <col min="17" max="17" width="20.83203125" style="8"/>
+    <col min="18" max="16384" width="20.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="13"/>
+      <c r="U1" s="10"/>
+    </row>
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8">
+      <c r="C4" s="5">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="M4" s="5"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="L5" s="1"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="6">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="8">
+      <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="M8" s="5"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="8">
+      <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="M9" s="5"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="6">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="6">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="M11" s="3"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="6">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="6">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="M13" s="3"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="6">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="6">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="6">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="M16" s="3"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="6">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="M17" s="3"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="6">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="8">
+      <c r="C19" s="5">
         <v>4</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="M19" s="5"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="6">
-        <v>3</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="8">
+      <c r="C21" s="5">
         <v>4</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="M21" s="5"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="6">
-        <v>3</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="6">
-        <v>3</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="6">
-        <v>3</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="6">
-        <v>3</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="6">
-        <v>3</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="6">
-        <v>3</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="6">
-        <v>3</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="6">
-        <v>3</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="6">
-        <v>3</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B31" s="6">
-        <v>3</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="6">
-        <v>3</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="6">
-        <v>3</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="6">
-        <v>3</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="6">
-        <v>3</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B36" s="6">
-        <v>3</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B37" s="6">
-        <v>3</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B38" s="6">
-        <v>3</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="M38" s="3"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B39" s="6">
-        <v>3</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B40" s="6">
-        <v>3</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="6">
-        <v>3</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="M41" s="3"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B42" s="6">
-        <v>3</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B43" s="6">
-        <v>3</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="F43" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B44" s="6">
-        <v>3</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B45" s="6">
-        <v>3</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B46" s="8">
+      <c r="C46" s="5">
         <v>4</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="M46" s="5"/>
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B47" s="6">
-        <v>3</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B48" s="6">
-        <v>3</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B49" s="6">
-        <v>3</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B50" s="6">
-        <v>3</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B51" s="6">
-        <v>3</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="E51" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="F51" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B52" s="6">
-        <v>3</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="F52" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+    </row>
+    <row r="53" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B53" s="6">
-        <v>3</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+    </row>
+    <row r="54" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B54" s="6">
-        <v>3</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+    </row>
+    <row r="55" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B55" s="8">
+      <c r="C55" s="5">
         <v>5</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="D55" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="E55" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="F55" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="4" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="M55" s="5"/>
+      <c r="Q55" s="4"/>
+    </row>
+    <row r="56" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B56" s="6">
-        <v>3</v>
-      </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+    </row>
+    <row r="57" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B57" s="6">
-        <v>3</v>
-      </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="F57" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="G57" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+    </row>
+    <row r="58" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B58" s="6">
-        <v>3</v>
-      </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="F58" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="G58" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+    </row>
+    <row r="59" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B59" s="8">
+      <c r="C59" s="5">
         <v>4</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="F59" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="G59" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="M59" s="5"/>
+      <c r="Q59" s="4"/>
+    </row>
+    <row r="60" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B60" s="6">
-        <v>3</v>
-      </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="E60" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="F60" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="G60" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+    </row>
+    <row r="61" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B61" s="6">
-        <v>3</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G61" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+    </row>
+    <row r="62" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B62" s="6">
-        <v>3</v>
-      </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="F62" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="G62" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-    </row>
-    <row r="63" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+    </row>
+    <row r="63" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B63" s="6">
-        <v>3</v>
-      </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="F63" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="G63" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-    </row>
-    <row r="64" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+    </row>
+    <row r="64" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B64" s="8">
+      <c r="C64" s="5">
         <v>4</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="F64" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="G64" s="4" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="M64" s="5"/>
+      <c r="Q64" s="4"/>
+    </row>
+    <row r="65" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B65" s="6">
-        <v>3</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="E65" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="F65" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-    </row>
-    <row r="66" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+    </row>
+    <row r="66" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B66" s="6">
-        <v>3</v>
-      </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="3">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="E66" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="F66" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="G66" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="M66" s="3"/>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B67" s="6">
-        <v>3</v>
-      </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="E67" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="F67" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="G67" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-    </row>
-    <row r="68" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+    </row>
+    <row r="68" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B68" s="6">
-        <v>3</v>
-      </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="F68" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="G68" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+    </row>
+    <row r="69" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B69" s="6">
-        <v>3</v>
-      </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="F69" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="G69" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+    </row>
+    <row r="70" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B70" s="6">
-        <v>3</v>
-      </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="F70" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="G70" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-    </row>
-    <row r="71" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+    </row>
+    <row r="71" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B71" s="6">
-        <v>3</v>
-      </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="E71" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="F71" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="G71" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-    </row>
-    <row r="72" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+    </row>
+    <row r="72" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B72" s="6">
-        <v>3</v>
-      </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="E72" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="F72" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="G72" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-    </row>
-    <row r="73" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+    </row>
+    <row r="73" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B73" s="6">
-        <v>3</v>
-      </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="E73" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="F73" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="G73" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-    </row>
-    <row r="74" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+    </row>
+    <row r="74" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B74" s="6">
-        <v>3</v>
-      </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="E74" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="F74" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="G74" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-    </row>
-    <row r="75" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+    </row>
+    <row r="75" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B75" s="8">
+      <c r="C75" s="5">
         <v>4</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="D75" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="E75" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="F75" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="G75" s="4" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="M75" s="5"/>
+      <c r="Q75" s="4"/>
+    </row>
+    <row r="76" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B76" s="6">
-        <v>3</v>
-      </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="E76" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="F76" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="G76" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-    </row>
-    <row r="77" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+    </row>
+    <row r="77" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B77" s="6">
-        <v>3</v>
-      </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="E77" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="F77" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="G77" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-    </row>
-    <row r="78" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+    </row>
+    <row r="78" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B78" s="6">
-        <v>3</v>
-      </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="E78" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="F78" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="G78" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-    </row>
-    <row r="79" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+    </row>
+    <row r="79" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B79" s="6">
-        <v>3</v>
-      </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="E79" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="F79" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="G79" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-    </row>
-    <row r="80" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+    </row>
+    <row r="80" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B80" s="6">
-        <v>3</v>
-      </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="E80" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="F80" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="G80" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-    </row>
-    <row r="81" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+    </row>
+    <row r="81" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B81" s="6">
-        <v>3</v>
-      </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="E81" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="F81" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="G81" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+    </row>
+    <row r="82" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B82" s="6">
-        <v>3</v>
-      </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="E82" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="F82" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="G82" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-    </row>
-    <row r="83" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+    </row>
+    <row r="83" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B83" s="8">
+      <c r="C83" s="5">
         <v>4</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="E83" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="F83" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="G83" s="4" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
+      <c r="M83" s="5"/>
+      <c r="Q83" s="4"/>
+    </row>
+    <row r="84" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B84" s="6">
-        <v>3</v>
-      </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="E84" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="F84" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="G84" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-    </row>
-    <row r="85" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+    </row>
+    <row r="85" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B85" s="6">
-        <v>3</v>
-      </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="3">
+        <v>3</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="E85" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="F85" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="G85" s="1" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
+      <c r="M85" s="3"/>
+      <c r="Q85" s="1"/>
+    </row>
+    <row r="86" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B86" s="6">
-        <v>3</v>
-      </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="3">
+        <v>3</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="E86" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="F86" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="G86" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+      <c r="M86" s="3"/>
+      <c r="Q86" s="1"/>
+    </row>
+    <row r="87" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B87" s="6">
-        <v>3</v>
-      </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="E87" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="F87" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="G87" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-    </row>
-    <row r="88" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+    </row>
+    <row r="88" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B88" s="6">
-        <v>3</v>
-      </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="E88" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="F88" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="G88" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-    </row>
-    <row r="89" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+    </row>
+    <row r="89" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B89" s="6">
-        <v>3</v>
-      </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="E89" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="F89" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="G89" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-    </row>
-    <row r="90" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+    </row>
+    <row r="90" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B90" s="6">
-        <v>3</v>
-      </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="3">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="E90" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="F90" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="G90" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-    </row>
-    <row r="91" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+    </row>
+    <row r="91" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B91" s="6">
-        <v>3</v>
-      </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="3">
+        <v>3</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="E91" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="F91" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="G91" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-    </row>
-    <row r="92" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+    </row>
+    <row r="92" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B92" s="6">
-        <v>3</v>
-      </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="E92" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="F92" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="G92" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-    </row>
-    <row r="93" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+    </row>
+    <row r="93" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B93" s="6">
-        <v>3</v>
-      </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="3">
+        <v>3</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="E93" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="F93" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="G93" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
+      <c r="M93" s="3"/>
+      <c r="Q93" s="1"/>
+    </row>
+    <row r="94" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B94" s="8">
+      <c r="C94" s="5">
         <v>4</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="D94" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="E94" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="F94" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="G94" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
+      <c r="M94" s="5"/>
+      <c r="Q94" s="1"/>
+    </row>
+    <row r="95" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B95" s="6">
-        <v>3</v>
-      </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="3">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="E95" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="F95" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="G95" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-    </row>
-    <row r="96" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+    </row>
+    <row r="96" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B96" s="6">
-        <v>3</v>
-      </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="E96" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="F96" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="G96" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-    </row>
-    <row r="97" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+    </row>
+    <row r="97" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B97" s="6">
-        <v>3</v>
-      </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="3">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="E97" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="F97" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="G97" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-    </row>
-    <row r="98" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+    </row>
+    <row r="98" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B98" s="6">
-        <v>3</v>
-      </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="3">
+        <v>3</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="E98" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="F98" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="G98" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-    </row>
-    <row r="99" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+    </row>
+    <row r="99" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B99" s="6">
-        <v>3</v>
-      </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="3">
+        <v>3</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="E99" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="F99" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="G99" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-    </row>
-    <row r="100" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+    </row>
+    <row r="100" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B100" s="6">
-        <v>3</v>
-      </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="3">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="E100" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="F100" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="G100" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-    </row>
-    <row r="101" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+    </row>
+    <row r="101" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B101" s="6">
-        <v>3</v>
-      </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="3">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="E101" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="F101" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="G101" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-    </row>
-    <row r="102" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+    </row>
+    <row r="102" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B102" s="6">
-        <v>3</v>
-      </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="3">
+        <v>3</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="E102" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="F102" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="G102" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
+      <c r="M102" s="3"/>
+      <c r="Q102" s="1"/>
+    </row>
+    <row r="103" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B103" s="6">
-        <v>3</v>
-      </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="3">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="E103" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="F103" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="G103" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-    </row>
-    <row r="104" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+    </row>
+    <row r="104" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B104" s="6">
-        <v>3</v>
-      </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="3">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="E104" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="F104" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="G104" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-    </row>
-    <row r="105" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="s">
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+    </row>
+    <row r="105" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B105" s="8">
+      <c r="C105" s="5">
         <v>4</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="D105" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="E105" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="F105" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="G105" s="4" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5" t="s">
+      <c r="M105" s="5"/>
+      <c r="Q105" s="4"/>
+    </row>
+    <row r="106" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B106" s="8">
+      <c r="C106" s="5">
         <v>5</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="D106" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="E106" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="F106" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="G106" s="4" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
+      <c r="M106" s="5"/>
+      <c r="Q106" s="4"/>
+    </row>
+    <row r="107" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B107" s="6">
-        <v>3</v>
-      </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="3">
+        <v>3</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="E107" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="F107" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="G107" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-    </row>
-    <row r="108" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+    </row>
+    <row r="108" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B108" s="6">
-        <v>3</v>
-      </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="3">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="E108" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="F108" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="G108" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-    </row>
-    <row r="109" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+    </row>
+    <row r="109" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B109" s="6">
-        <v>3</v>
-      </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="3">
+        <v>3</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="E109" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="F109" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="G109" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-    </row>
-    <row r="110" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+    </row>
+    <row r="110" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B110" s="6">
-        <v>3</v>
-      </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="3">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="E110" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="F110" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="G110" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-    </row>
-    <row r="111" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+    </row>
+    <row r="111" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B111" s="6">
-        <v>3</v>
-      </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="3">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="E111" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="F111" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="G111" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-    </row>
-    <row r="112" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="s">
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+    </row>
+    <row r="112" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B112" s="8">
+      <c r="C112" s="5">
         <v>4</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="D112" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="E112" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="F112" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="G112" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
+      <c r="M112" s="5"/>
+      <c r="Q112" s="4"/>
+    </row>
+    <row r="113" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="C113" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="D113" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="E113" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="F113" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="G113" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="H113" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H113" s="4" t="s">
+      <c r="I113" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="I113" s="4" t="s">
+      <c r="J113" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="J113" s="4" t="s">
+      <c r="K113" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
+      <c r="L113" s="1"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+    </row>
+    <row r="114" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B114" s="6">
-        <v>3</v>
-      </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="3">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="E114" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="F114" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="G114" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
-    </row>
-    <row r="115" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+    </row>
+    <row r="115" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B115" s="6">
-        <v>3</v>
-      </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="3">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="E115" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="F115" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="G115" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-    </row>
-    <row r="116" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+    </row>
+    <row r="116" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B116" s="6">
-        <v>3</v>
-      </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="3">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="E116" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="F116" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="G116" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-    </row>
-    <row r="117" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="s">
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+    </row>
+    <row r="117" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="B117" s="6">
-        <v>3</v>
-      </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="3">
+        <v>3</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="E117" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="F117" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="G117" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
+      <c r="M117" s="3"/>
+      <c r="Q117" s="1"/>
+    </row>
+    <row r="118" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B118" s="6">
-        <v>3</v>
-      </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="3">
+        <v>3</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="E118" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="F118" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="G118" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-    </row>
-    <row r="119" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="s">
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+    </row>
+    <row r="119" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B119" s="8">
+      <c r="C119" s="5">
         <v>4</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="D119" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="E119" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="F119" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="G119" s="4" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
+      <c r="M119" s="5"/>
+      <c r="Q119" s="4"/>
+    </row>
+    <row r="120" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B120" s="6">
-        <v>3</v>
-      </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="3">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="E120" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="F120" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="G120" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-    </row>
-    <row r="121" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+    </row>
+    <row r="121" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="C121" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="D121" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="E121" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="F121" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="G121" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="G121" s="4" t="s">
+      <c r="H121" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="H121" s="4" t="s">
+      <c r="I121" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="I121" s="4" t="s">
+      <c r="J121" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="J121" s="4" t="s">
+      <c r="K121" s="1" t="s">
         <v>623</v>
       </c>
+      <c r="L121" s="1"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>